--- a/log_history/Y4_B2526_Cardiology_scanner1768821881454_567e943abfc4be56cdf20b120a4f7b54f60b16dc0242179cf9ef14c5854213c5.xlsx
+++ b/log_history/Y4_B2526_Cardiology_scanner1768821881454_567e943abfc4be56cdf20b120a4f7b54f60b16dc0242179cf9ef14c5854213c5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Cardiology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2526_Cardiology_scanner1768821881454_567e943abfc4be56cdf20b120a4f7b54f60b16dc0242179cf9ef14c5854213c5.xlsx
+++ b/log_history/Y4_B2526_Cardiology_scanner1768821881454_567e943abfc4be56cdf20b120a4f7b54f60b16dc0242179cf9ef14c5854213c5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Cardiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
